--- a/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.0)lineaBase.xlsx
+++ b/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.0)lineaBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -162,9 +162,6 @@
     <t>F3</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema debe tener el acceso restringido por contraseñas acorde a las escogidas por cada jugador </t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -177,12 +174,6 @@
     <t>El sistema debe recuperarse a los 10 segundos que se genera un fallo durante el desarrollo de la partida</t>
   </si>
   <si>
-    <t>La aplicación estará disponible en las salas A, B de ingeniería de sistemas</t>
-  </si>
-  <si>
-    <t>La aplicación estará disponible durante el transcurso de la sustentación</t>
-  </si>
-  <si>
     <t>MOD</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>Un jugador no podrá modificar un perfil que no sea el suyo</t>
-  </si>
-  <si>
     <t>El sistema será utilizado por estudiantes de ingeniería de sistemas de la Pontificia Universidad Javeriana</t>
   </si>
   <si>
@@ -235,6 +223,48 @@
   </si>
   <si>
     <t>El sistema será utilizado por profesores de ingeniería de sistemas de la Pontificia Universidad Javeriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La aplicación T-Monopoly® estará disponible en las salas A,B de ingeniería de sistemas de la Pontificia Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>El tiempo de disponibilidad de la aplicación T-Monopoly® será durante la sustentación de la última entrega, duración 2 horas.</t>
+  </si>
+  <si>
+    <t>La aplicación T-Monopoly®  estará disponible en el CD de la entrega final.</t>
+  </si>
+  <si>
+    <t>La aplicación T-Monopoly® estará disponible para todos los Stakeholders</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un participante desea entrar a una partida deberá registrar su usuario y contraseña.</t>
+  </si>
+  <si>
+    <t>Si un participante desea crear una partida deberá registrar su usuario y contraseña</t>
+  </si>
+  <si>
+    <t>El sistema verificara que el usuario y la contraseña estén registrados en la aplicación.</t>
+  </si>
+  <si>
+    <t>Un jugador no podrá acceder por medio cuenta ajena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un jugador verá de otros jugadores únicamente el ranking </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un jugador intenta acceder a información privada de otro, este será expulsado de la partida en la que se encuentre</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
 </sst>
 </file>
@@ -774,200 +804,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,39 +838,231 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,37 +1358,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1367,23 +1399,23 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="86"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1393,24 +1425,24 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="86" t="s">
-        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -1421,24 +1453,24 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="32" t="s">
+      <c r="B4" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="86" t="s">
-        <v>56</v>
+      <c r="I4" s="48"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1447,21 +1479,23 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="32" t="s">
+      <c r="B5" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="86"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1469,19 +1503,23 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="69" t="s">
+      <c r="A6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="86"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1489,22 +1527,22 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="21" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="86" t="s">
-        <v>57</v>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1514,21 +1552,21 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="21" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="86"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1537,21 +1575,21 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="86"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1560,24 +1598,24 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="37" t="s">
+      <c r="B10" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="86" t="s">
-        <v>60</v>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1587,24 +1625,24 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="37" t="s">
+      <c r="A11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="86" t="s">
-        <v>60</v>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1614,19 +1652,19 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="37" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1635,22 +1673,22 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="38" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="86" t="s">
-        <v>62</v>
+      <c r="I13" s="86"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
@@ -1662,22 +1700,22 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="38" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="86" t="s">
-        <v>62</v>
+      <c r="I14" s="86"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>21</v>
@@ -1689,22 +1727,22 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="38" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="86" t="s">
-        <v>62</v>
+      <c r="I15" s="86"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>18</v>
@@ -1716,19 +1754,19 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="38" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1737,19 +1775,19 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="38" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1758,24 +1796,24 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="39" t="s">
+      <c r="B18" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="86" t="s">
-        <v>60</v>
+      <c r="I18" s="76"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1785,23 +1823,23 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="39" t="s">
+      <c r="A19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="86"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1810,23 +1848,23 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="39" t="s">
+      <c r="A20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1835,24 +1873,24 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="40" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="86" t="s">
-        <v>60</v>
+      <c r="I21" s="78"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>33</v>
@@ -1862,24 +1900,24 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="40" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="86" t="s">
-        <v>60</v>
+      <c r="I22" s="78"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L22" s="6"/>
       <c r="N22" s="2"/>
@@ -1887,24 +1925,24 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="40" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="86" t="s">
-        <v>60</v>
+      <c r="I23" s="78"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="L23" s="6"/>
       <c r="N23" s="2"/>
@@ -1912,24 +1950,24 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="36" t="s">
+      <c r="B24" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="86" t="s">
-        <v>62</v>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" t="s">
@@ -1937,62 +1975,62 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="36" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="86" t="s">
-        <v>57</v>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="86"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="47" t="s">
+      <c r="B27" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="86" t="s">
-        <v>62</v>
+      <c r="I27" s="79"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" t="s">
@@ -2000,203 +2038,216 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="47" t="s">
+      <c r="A28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="86" t="s">
-        <v>62</v>
+      <c r="I28" s="79"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="47" t="s">
+      <c r="A29" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="86"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="79"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="79"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="79"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="44" t="s">
+      <c r="B33" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" t="s">
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="44" t="s">
+    <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="44" t="s">
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="10"/>
-      <c r="M33" t="s">
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="33"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="10"/>
+      <c r="M36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="11"/>
-      <c r="M36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="15"/>
-      <c r="M37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" customHeight="1">
+    <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="33"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2208,30 +2259,30 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" customHeight="1">
+      <c r="L39" s="11"/>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A41" s="2"/>
+      <c r="L40" s="15"/>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2242,13 +2293,13 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="18" t="s">
-        <v>43</v>
+      <c r="L41" s="16"/>
+      <c r="M41" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2259,19 +2310,27 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" customHeight="1">
       <c r="A44" s="2"/>
@@ -2285,9 +2344,12 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="L44" s="19"/>
+      <c r="M44" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2299,9 +2361,8 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:13" ht="16.5" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2313,9 +2374,8 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2343,7 +2403,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:12">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2354,8 +2414,10 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2366,8 +2428,10 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2375,8 +2439,13 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2384,8 +2453,11 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2393,8 +2465,11 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2403,7 +2478,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:12">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2412,57 +2487,40 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B6:G6"/>
+  <mergeCells count="76">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="B16:G16"/>
@@ -2476,16 +2534,67 @@
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.0)lineaBase.xlsx
+++ b/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.0)lineaBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -99,9 +99,6 @@
     <t>I1</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -204,12 +201,6 @@
     <t>La maquina sobre la cual sera instalada la aplicación deberá tener JVM (Java Virtual Machine)</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>La aplicación unicamente estará instalada en Computadores que cumplan con los requerimientos P1 y P2</t>
   </si>
   <si>
@@ -249,22 +240,73 @@
     <t>El sistema verificara que el usuario y la contraseña estén registrados en la aplicación.</t>
   </si>
   <si>
-    <t>Un jugador no podrá acceder por medio cuenta ajena</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un jugador verá de otros jugadores únicamente el ranking </t>
   </si>
   <si>
     <t xml:space="preserve"> Si un jugador intenta acceder a información privada de otro, este será expulsado de la partida en la que se encuentre</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>SE2</t>
+  </si>
+  <si>
+    <t>SE3</t>
+  </si>
+  <si>
+    <t>SE4</t>
+  </si>
+  <si>
+    <t>SE5</t>
+  </si>
+  <si>
+    <t>SE6</t>
+  </si>
+  <si>
+    <t>PO1</t>
+  </si>
+  <si>
+    <t>PO2</t>
+  </si>
+  <si>
+    <t>PO3</t>
+  </si>
+  <si>
+    <t>Un jugador no podrá acceder por medio de una cuenta ajena</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>Si la operación es visualización, al finalizar el turno de un jugador el tiempo de respuesta no excedera los 3 segundos</t>
+  </si>
+  <si>
+    <t>ESPECIFICACIONES (DESEMPEÑO)</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>Si la operación es con calculos, el tiempo de respuesta no excedera los 5 segundos</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>El inicio de partida tendra un tiempo de respuesta maximo de 10 segundos</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>En la partida, si un jugador no ha hecho ningún movimiento, el tiempo de espera será de 60 segundos</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>Despues de que hayan 2 jugadores en la partida se esperaran 120 segundos para iniciar el juego</t>
   </si>
 </sst>
 </file>
@@ -309,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +430,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -546,62 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -778,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,12 +783,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -838,38 +827,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,8 +857,101 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -890,7 +959,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,31 +980,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,134 +998,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1376,21 +1373,21 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="20" t="s">
-        <v>52</v>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1399,23 +1396,23 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1425,24 +1422,24 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="48" t="s">
+      <c r="B3" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="22" t="s">
-        <v>53</v>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -1453,24 +1450,24 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="48" t="s">
+      <c r="A4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="22" t="s">
-        <v>53</v>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1479,23 +1476,23 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="48" t="s">
+      <c r="A5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1503,23 +1500,23 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="66" t="s">
+      <c r="A6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1527,22 +1524,22 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="67" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="22" t="s">
-        <v>54</v>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1552,21 +1549,21 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="67" t="s">
+      <c r="A8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="22"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1575,21 +1572,21 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="67" t="s">
+      <c r="A9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="22"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1598,24 +1595,24 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="69" t="s">
+      <c r="B10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="22" t="s">
-        <v>57</v>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1625,24 +1622,24 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1652,19 +1649,19 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="69" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="22"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1673,22 +1670,22 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="86" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="22" t="s">
-        <v>59</v>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
@@ -1700,22 +1697,22 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="86" t="s">
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="22" t="s">
-        <v>59</v>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>21</v>
@@ -1727,22 +1724,22 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="86" t="s">
+      <c r="A15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="22" t="s">
-        <v>59</v>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>18</v>
@@ -1754,19 +1751,19 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="86" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="22"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1775,19 +1772,19 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="86" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="22"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1796,24 +1793,24 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="76" t="s">
+      <c r="A18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="22" t="s">
-        <v>57</v>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1823,23 +1820,23 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="76" t="s">
+      <c r="A19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="22"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1848,23 +1845,23 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="76" t="s">
+      <c r="A20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="22"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1873,51 +1870,51 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="78" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="22" t="s">
-        <v>57</v>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="78" t="s">
+      <c r="A22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="22" t="s">
-        <v>57</v>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L22" s="6"/>
       <c r="N22" s="2"/>
@@ -1925,24 +1922,24 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="78" t="s">
+      <c r="A23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="22" t="s">
-        <v>57</v>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L23" s="6"/>
       <c r="N23" s="2"/>
@@ -1950,338 +1947,378 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="84" t="s">
+      <c r="A24" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="22" t="s">
-        <v>59</v>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="84" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="22" t="s">
-        <v>54</v>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="84" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="79" t="s">
+      <c r="A27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="22" t="s">
-        <v>59</v>
+      <c r="I27" s="33"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="79" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="79"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="79"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="79"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="22"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="49" t="s">
+      <c r="B33" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="22" t="s">
-        <v>53</v>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="100"/>
+      <c r="M36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="10"/>
-      <c r="M36" t="s">
+    <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="100"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="100"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="100"/>
+      <c r="M39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="11"/>
-      <c r="M39" t="s">
+    <row r="40" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="100"/>
+      <c r="M40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="15"/>
-      <c r="M40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" thickTop="1">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2293,9 +2330,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="16"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" customHeight="1">
@@ -2310,9 +2347,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="18" t="s">
-        <v>41</v>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1">
@@ -2322,14 +2359,14 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
       <c r="K43" s="2"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="18" t="s">
-        <v>42</v>
+      <c r="M43" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" customHeight="1">
@@ -2344,9 +2381,9 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="18" t="s">
-        <v>43</v>
+      <c r="L44" s="16"/>
+      <c r="M44" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16.5" customHeight="1">
@@ -2515,12 +2552,66 @@
       <c r="G58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
+  <mergeCells count="80">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="B16:G16"/>
@@ -2537,61 +2628,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
